--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value953.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value953.xlsx
@@ -354,7 +354,7 @@
         <v>1.873784313121698</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.161682376797433</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value953.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value953.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.139039824075534</v>
+        <v>1.065570831298828</v>
       </c>
       <c r="B1">
-        <v>1.873784313121698</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.161682376797433</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.10807028598706</v>
+        <v>1.067980408668518</v>
       </c>
     </row>
   </sheetData>
